--- a/biology/Botanique/Acacia_gourmaensis/Acacia_gourmaensis.xlsx
+++ b/biology/Botanique/Acacia_gourmaensis/Acacia_gourmaensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acacia gourmaensis est une espèce de plantes de la famille des Fabaceae et du genre Acacia, présente en Afrique tropicale.
-Son épithète spécifique gourmaensis fait référence à sa localisation, gourma signifiant « la rive droite du fleuve Niger » en songhaï[2].
+Son épithète spécifique gourmaensis fait référence à sa localisation, gourma signifiant « la rive droite du fleuve Niger » en songhaï.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbuste ou petit arbre épineux, pouvant atteindre 4,5 m de hauteur[3], à cime étroite et ouverte, avec une écorce liégeuse fissurée ou écailleuse, des fleurs blanchâtres et des gousses plus ou moins ovales contenant 1 à 3 graines. Il fleurit en fin de saison des pluies[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste ou petit arbre épineux, pouvant atteindre 4,5 m de hauteur, à cime étroite et ouverte, avec une écorce liégeuse fissurée ou écailleuse, des fleurs blanchâtres et des gousses plus ou moins ovales contenant 1 à 3 graines. Il fleurit en fin de saison des pluies.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Peu commune, l'espèce est présente en Afrique de l'Ouest, du Burkina Faso et de la Côte d'Ivoire au Niger et au Togo[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peu commune, l'espèce est présente en Afrique de l'Ouest, du Burkina Faso et de la Côte d'Ivoire au Niger et au Togo.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la rencontre dans les savanes des zones soudano-guinéennes et guinéennes, sur des sols lourds et limoneux, également sur des sols ferrugineux et latéritiques[4] .
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la rencontre dans les savanes des zones soudano-guinéennes et guinéennes, sur des sols lourds et limoneux, également sur des sols ferrugineux et latéritiques .
 </t>
         </is>
       </c>
@@ -605,10 +623,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En médecine traditionnelle, les racines sont utilisées contre la toux, l'écorce comme purgatif.
-Les différentes parties de la plante connaissent de multiples autres usages : fourrage, rites funéraires, apiculture, fabrication de cordes et de vannerie, bois de feu et charbon de bois[4].
+Les différentes parties de la plante connaissent de multiples autres usages : fourrage, rites funéraires, apiculture, fabrication de cordes et de vannerie, bois de feu et charbon de bois.
 </t>
         </is>
       </c>
